--- a/curation/draft/package13/R13_BC_SDTM_QRS_Edits.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_Edits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/llander_cdisc_org/Documents/Documents/CDISC/Package 13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{7D1C497D-FA5B-41A3-8650-A430A295FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8320E950-AABC-48CA-ADBD-30A0F15977DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F2BD4-B821-429A-B888-3727B40E4381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{6BBF6836-5E1B-43CD-AEE4-7823566B0C0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6BBF6836-5E1B-43CD-AEE4-7823566B0C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_QRS_LOINC_EDITS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_QRS_LOINC_EDITS!$A$1:$Q$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SDTM_EQ5D_EDITS!$A$1:$AF$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -558,9 +558,6 @@
     <t>QSEVINTX</t>
   </si>
   <si>
-    <t>is the period of time for the test in</t>
-  </si>
-  <si>
     <t>EQ5D0202</t>
   </si>
   <si>
@@ -706,13 +703,16 @@
   </si>
   <si>
     <t>Replaced DEC Evaluation Interval Text with Evaluation Interval</t>
+  </si>
+  <si>
+    <t>is the period of time to be considered when answering the question in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,20 +1208,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABA8739-BAB9-4C99-9F71-4981AE379714}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.9375" customWidth="1"/>
-    <col min="6" max="6" width="24.8203125" customWidth="1"/>
-    <col min="9" max="9" width="28.5859375" customWidth="1"/>
-    <col min="17" max="17" width="85.5859375" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="17" max="17" width="85.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.7">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="43">
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="43">
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="43">
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43">
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43">
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="57.35">
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="57.35">
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" ht="57.35">
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="57.35">
+    <row r="10" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="86">
+    <row r="11" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="86">
+    <row r="12" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="100.35">
+    <row r="13" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="86">
+    <row r="14" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2008,15 +2008,15 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.52734375" customWidth="1"/>
-    <col min="6" max="6" width="60.52734375" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" customWidth="1"/>
     <col min="9" max="9" width="71" customWidth="1"/>
-    <col min="15" max="15" width="22.29296875" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.7">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,10 +2069,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="57.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2117,10 +2117,10 @@
         <v>151</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="57.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="57.35">
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" ht="57.35">
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2238,22 +2238,22 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" ht="28.7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="28.7">
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" ht="28.7">
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" ht="28.7">
+    <row r="9" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" ht="286.7">
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2483,10 +2483,10 @@
         <v>33</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="6" customFormat="1" ht="114.7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2530,10 +2530,10 @@
         <v>33</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" ht="409.6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2577,10 +2577,10 @@
         <v>27</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="6" customFormat="1" ht="43">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="6" customFormat="1" ht="43">
+    <row r="14" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2659,22 +2659,22 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="6" customFormat="1" ht="57.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -2706,22 +2706,22 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" ht="43">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2753,22 +2753,22 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" ht="43">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" s="6" customFormat="1" ht="57.35">
+    <row r="18" spans="1:17" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2845,22 +2845,22 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" ht="57.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2892,22 +2892,22 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="6" customFormat="1" ht="43">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="21" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="22" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="23" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="24" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="6" customFormat="1" ht="243.7">
+    <row r="25" spans="1:17" s="6" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="26" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="27" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="6" customFormat="1" ht="286.7">
+    <row r="28" spans="1:17" s="6" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -3323,10 +3323,10 @@
         <v>33</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="6" customFormat="1" ht="28.7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="30" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="6" customFormat="1" ht="409.6">
+    <row r="31" spans="1:17" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -3464,10 +3464,10 @@
         <v>33</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="6" customFormat="1" ht="28.7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="33" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="34" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="35" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="36" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="37" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="6" customFormat="1" ht="387">
+    <row r="38" spans="1:17" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -3791,10 +3791,10 @@
         <v>33</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="6" customFormat="1" ht="28.7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" s="6" customFormat="1" ht="28.7">
+    <row r="40" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -4016,17 +4016,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AD94C9-CFD8-4A0C-A6F6-FA2C18084D39}">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.76171875" customWidth="1"/>
-    <col min="8" max="8" width="18.1171875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="1" spans="1:32" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="2" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4200,7 +4217,7 @@
       </c>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="3" spans="1:32" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -4274,7 +4291,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" s="9" customFormat="1" ht="28.7">
+    <row r="4" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -4352,7 +4369,7 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="5" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -4432,7 +4449,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="6" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -4512,7 +4529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="7" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4592,7 +4609,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="8" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -4664,7 +4681,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -4711,13 +4728,13 @@
         <v>170</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>169</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -4738,7 +4755,7 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="10" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -4756,10 +4773,10 @@
         <v>131</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>134</v>
@@ -4780,7 +4797,7 @@
         <v>87</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>138</v>
@@ -4814,7 +4831,7 @@
       </c>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="11" spans="1:32" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -4832,10 +4849,10 @@
         <v>131</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>141</v>
@@ -4856,7 +4873,7 @@
         <v>87</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>146</v>
@@ -4888,7 +4905,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" s="9" customFormat="1" ht="28.7">
+    <row r="12" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -4906,10 +4923,10 @@
         <v>131</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>149</v>
@@ -4966,7 +4983,7 @@
       </c>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="13" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -4984,10 +5001,10 @@
         <v>131</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>154</v>
@@ -5002,7 +5019,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -5046,7 +5063,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="14" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -5064,10 +5081,10 @@
         <v>131</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>161</v>
@@ -5126,7 +5143,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="15" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -5144,10 +5161,10 @@
         <v>131</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>165</v>
@@ -5206,7 +5223,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="16" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -5224,10 +5241,10 @@
         <v>131</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>166</v>
@@ -5278,7 +5295,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="17" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -5296,10 +5313,10 @@
         <v>131</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>170</v>
@@ -5325,13 +5342,13 @@
         <v>170</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>169</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -5352,7 +5369,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="18" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -5370,10 +5387,10 @@
         <v>131</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>134</v>
@@ -5394,7 +5411,7 @@
         <v>91</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>138</v>
@@ -5428,7 +5445,7 @@
       </c>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="19" spans="1:32" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5446,10 +5463,10 @@
         <v>131</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>141</v>
@@ -5470,7 +5487,7 @@
         <v>91</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>146</v>
@@ -5502,7 +5519,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" s="9" customFormat="1" ht="28.7">
+    <row r="20" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -5520,10 +5537,10 @@
         <v>131</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>149</v>
@@ -5580,7 +5597,7 @@
       </c>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="21" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -5598,10 +5615,10 @@
         <v>131</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>154</v>
@@ -5616,7 +5633,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -5660,7 +5677,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="22" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -5678,10 +5695,10 @@
         <v>131</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>161</v>
@@ -5740,7 +5757,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="23" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5758,10 +5775,10 @@
         <v>131</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>165</v>
@@ -5820,7 +5837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="24" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -5838,10 +5855,10 @@
         <v>131</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>166</v>
@@ -5892,7 +5909,7 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="25" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -5910,10 +5927,10 @@
         <v>131</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>170</v>
@@ -5939,13 +5956,13 @@
         <v>170</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>169</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -5966,7 +5983,7 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="26" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -5984,10 +6001,10 @@
         <v>131</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>134</v>
@@ -6008,7 +6025,7 @@
         <v>83</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>138</v>
@@ -6042,7 +6059,7 @@
       </c>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="27" spans="1:32" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -6060,10 +6077,10 @@
         <v>131</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>141</v>
@@ -6084,7 +6101,7 @@
         <v>83</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>146</v>
@@ -6116,7 +6133,7 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" s="9" customFormat="1" ht="28.7">
+    <row r="28" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -6134,10 +6151,10 @@
         <v>131</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>149</v>
@@ -6194,7 +6211,7 @@
       </c>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="29" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -6212,10 +6229,10 @@
         <v>131</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>154</v>
@@ -6230,7 +6247,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -6274,7 +6291,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="30" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -6292,10 +6309,10 @@
         <v>131</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>161</v>
@@ -6354,7 +6371,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="31" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -6372,10 +6389,10 @@
         <v>131</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>165</v>
@@ -6434,7 +6451,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="32" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -6452,10 +6469,10 @@
         <v>131</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>166</v>
@@ -6506,7 +6523,7 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="33" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -6524,10 +6541,10 @@
         <v>131</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>170</v>
@@ -6553,13 +6570,13 @@
         <v>170</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>169</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -6580,7 +6597,7 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="34" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -6598,10 +6615,10 @@
         <v>131</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>134</v>
@@ -6622,7 +6639,7 @@
         <v>67</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>138</v>
@@ -6656,7 +6673,7 @@
       </c>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="35" spans="1:32" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -6674,10 +6691,10 @@
         <v>131</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>141</v>
@@ -6698,7 +6715,7 @@
         <v>67</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>146</v>
@@ -6730,7 +6747,7 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" s="9" customFormat="1" ht="28.7">
+    <row r="36" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -6748,10 +6765,10 @@
         <v>131</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>149</v>
@@ -6808,7 +6825,7 @@
       </c>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="37" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -6826,10 +6843,10 @@
         <v>131</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>154</v>
@@ -6844,7 +6861,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -6888,7 +6905,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="38" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -6906,10 +6923,10 @@
         <v>131</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>161</v>
@@ -6968,7 +6985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="39" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -6986,10 +7003,10 @@
         <v>131</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>165</v>
@@ -7048,7 +7065,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="40" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -7066,10 +7083,10 @@
         <v>131</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>166</v>
@@ -7120,7 +7137,7 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="41" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -7138,10 +7155,10 @@
         <v>131</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>170</v>
@@ -7167,13 +7184,13 @@
         <v>170</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>169</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -7194,7 +7211,7 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="42" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -7212,10 +7229,10 @@
         <v>131</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -7236,7 +7253,7 @@
         <v>74</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>138</v>
@@ -7270,7 +7287,7 @@
       </c>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="43" spans="1:32" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -7288,10 +7305,10 @@
         <v>131</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>141</v>
@@ -7312,7 +7329,7 @@
         <v>74</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>146</v>
@@ -7344,7 +7361,7 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" s="9" customFormat="1" ht="28.7">
+    <row r="44" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -7362,10 +7379,10 @@
         <v>131</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>149</v>
@@ -7422,7 +7439,7 @@
       </c>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="45" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -7440,10 +7457,10 @@
         <v>131</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>154</v>
@@ -7458,7 +7475,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -7502,7 +7519,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="46" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -7520,10 +7537,10 @@
         <v>131</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>161</v>
@@ -7538,7 +7555,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -7582,7 +7599,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="9" customFormat="1" ht="43">
+    <row r="47" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -7600,10 +7617,10 @@
         <v>131</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>165</v>
@@ -7618,7 +7635,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -7662,7 +7679,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="48" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -7680,45 +7697,45 @@
         <v>131</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="I48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="K48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L48" s="5" t="s">
+      <c r="M48" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>146</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="U48" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>134</v>
@@ -7740,7 +7757,7 @@
       </c>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="49" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -7758,16 +7775,16 @@
         <v>131</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="I49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>142</v>
@@ -7778,19 +7795,19 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>146</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T49" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="U49" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>134</v>
@@ -7814,7 +7831,7 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="50" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -7832,16 +7849,16 @@
         <v>131</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="I50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>142</v>
@@ -7852,19 +7869,19 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>146</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T50" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="U50" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="U50" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="V50" s="3" t="s">
         <v>134</v>
@@ -7888,7 +7905,7 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="51" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -7906,16 +7923,16 @@
         <v>131</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="I51" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>142</v>
@@ -7926,19 +7943,19 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>146</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T51" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="U51" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="V51" s="3" t="s">
         <v>134</v>
@@ -7962,7 +7979,7 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="52" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -7980,16 +7997,16 @@
         <v>131</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="I52" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>142</v>
@@ -8000,19 +8017,19 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>146</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T52" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="U52" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>134</v>
@@ -8036,7 +8053,7 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="53" spans="1:32" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -8054,10 +8071,10 @@
         <v>131</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>166</v>
@@ -8108,7 +8125,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:32" s="9" customFormat="1" ht="57.35">
+    <row r="54" spans="1:32" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -8126,10 +8143,10 @@
         <v>131</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>170</v>
@@ -8155,13 +8172,13 @@
         <v>170</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>169</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -8305,6 +8322,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -8561,35 +8599,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E05AA664-229A-48E6-B7AA-7D955BE46185}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9878F43C-FBC4-4794-AA9D-499215CE9D5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B8F77C4-58D7-4179-BD01-41C03D1C748A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B8F77C4-58D7-4179-BD01-41C03D1C748A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9878F43C-FBC4-4794-AA9D-499215CE9D5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E05AA664-229A-48E6-B7AA-7D955BE46185}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>